--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Mcam-Mcam.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Mcam-Mcam.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>87.038094</v>
+        <v>92.64038833333332</v>
       </c>
       <c r="H2">
-        <v>261.114282</v>
+        <v>277.921165</v>
       </c>
       <c r="I2">
-        <v>0.7371871251537216</v>
+        <v>0.7451295270557885</v>
       </c>
       <c r="J2">
-        <v>0.7371871251537216</v>
+        <v>0.7451295270557885</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>87.038094</v>
+        <v>92.64038833333332</v>
       </c>
       <c r="N2">
-        <v>261.114282</v>
+        <v>277.921165</v>
       </c>
       <c r="O2">
-        <v>0.7371871251537216</v>
+        <v>0.7451295270557885</v>
       </c>
       <c r="P2">
-        <v>0.7371871251537216</v>
+        <v>0.7451295270557885</v>
       </c>
       <c r="Q2">
-        <v>7575.629807152836</v>
+        <v>8582.2415505508</v>
       </c>
       <c r="R2">
-        <v>68180.66826437552</v>
+        <v>77240.17395495721</v>
       </c>
       <c r="S2">
-        <v>0.5434448574924089</v>
+        <v>0.555218012090383</v>
       </c>
       <c r="T2">
-        <v>0.5434448574924089</v>
+        <v>0.555218012090383</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>87.038094</v>
+        <v>92.64038833333332</v>
       </c>
       <c r="H3">
-        <v>261.114282</v>
+        <v>277.921165</v>
       </c>
       <c r="I3">
-        <v>0.7371871251537216</v>
+        <v>0.7451295270557885</v>
       </c>
       <c r="J3">
-        <v>0.7371871251537216</v>
+        <v>0.7451295270557885</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,25 +617,25 @@
         <v>2.255465</v>
       </c>
       <c r="N3">
-        <v>6.766395000000001</v>
+        <v>6.766394999999999</v>
       </c>
       <c r="O3">
-        <v>0.01910312695076755</v>
+        <v>0.01814126213173672</v>
       </c>
       <c r="P3">
-        <v>0.01910312695076755</v>
+        <v>0.01814126213173672</v>
       </c>
       <c r="Q3">
-        <v>196.3113746837101</v>
+        <v>208.9471534722416</v>
       </c>
       <c r="R3">
-        <v>1766.80237215339</v>
+        <v>1880.524381250175</v>
       </c>
       <c r="S3">
-        <v>0.01408257923828291</v>
+        <v>0.01351759007241607</v>
       </c>
       <c r="T3">
-        <v>0.01408257923828291</v>
+        <v>0.01351759007241607</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>87.038094</v>
+        <v>92.64038833333332</v>
       </c>
       <c r="H4">
-        <v>261.114282</v>
+        <v>277.921165</v>
       </c>
       <c r="I4">
-        <v>0.7371871251537216</v>
+        <v>0.7451295270557885</v>
       </c>
       <c r="J4">
-        <v>0.7371871251537216</v>
+        <v>0.7451295270557885</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>28.247359</v>
+        <v>28.72545833333334</v>
       </c>
       <c r="N4">
-        <v>84.74207700000001</v>
+        <v>86.17637500000001</v>
       </c>
       <c r="O4">
-        <v>0.2392468448860462</v>
+        <v>0.2310459570329316</v>
       </c>
       <c r="P4">
-        <v>0.2392468448860462</v>
+        <v>0.2310459570329316</v>
       </c>
       <c r="Q4">
-        <v>2458.596287893746</v>
+        <v>2661.137615052986</v>
       </c>
       <c r="R4">
-        <v>22127.36659104372</v>
+        <v>23950.23853547687</v>
       </c>
       <c r="S4">
-        <v>0.1763696937836428</v>
+        <v>0.1721591646921003</v>
       </c>
       <c r="T4">
-        <v>0.1763696937836428</v>
+        <v>0.1721591646921004</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>87.038094</v>
+        <v>92.64038833333332</v>
       </c>
       <c r="H5">
-        <v>261.114282</v>
+        <v>277.921165</v>
       </c>
       <c r="I5">
-        <v>0.7371871251537216</v>
+        <v>0.7451295270557885</v>
       </c>
       <c r="J5">
-        <v>0.7371871251537216</v>
+        <v>0.7451295270557885</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.5269253333333334</v>
+        <v>0.706587</v>
       </c>
       <c r="N5">
-        <v>1.580776</v>
+        <v>2.119761</v>
       </c>
       <c r="O5">
-        <v>0.004462903009464643</v>
+        <v>0.005683253779543222</v>
       </c>
       <c r="P5">
-        <v>0.004462903009464643</v>
+        <v>0.005683253779543223</v>
       </c>
       <c r="Q5">
-        <v>45.862576693648</v>
+        <v>65.45849407128499</v>
       </c>
       <c r="R5">
-        <v>412.763190242832</v>
+        <v>589.1264466415649</v>
       </c>
       <c r="S5">
-        <v>0.003289994639387133</v>
+        <v>0.004234760200889063</v>
       </c>
       <c r="T5">
-        <v>0.003289994639387133</v>
+        <v>0.004234760200889064</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,13 +785,13 @@
         <v>2.255465</v>
       </c>
       <c r="H6">
-        <v>6.766395000000001</v>
+        <v>6.766394999999999</v>
       </c>
       <c r="I6">
-        <v>0.01910312695076755</v>
+        <v>0.01814126213173672</v>
       </c>
       <c r="J6">
-        <v>0.01910312695076755</v>
+        <v>0.01814126213173672</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,28 +800,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>87.038094</v>
+        <v>92.64038833333332</v>
       </c>
       <c r="N6">
-        <v>261.114282</v>
+        <v>277.921165</v>
       </c>
       <c r="O6">
-        <v>0.7371871251537216</v>
+        <v>0.7451295270557885</v>
       </c>
       <c r="P6">
-        <v>0.7371871251537216</v>
+        <v>0.7451295270557885</v>
       </c>
       <c r="Q6">
-        <v>196.3113746837101</v>
+        <v>208.9471534722416</v>
       </c>
       <c r="R6">
-        <v>1766.80237215339</v>
+        <v>1880.524381250175</v>
       </c>
       <c r="S6">
-        <v>0.01408257923828291</v>
+        <v>0.01351759007241607</v>
       </c>
       <c r="T6">
-        <v>0.01408257923828291</v>
+        <v>0.01351759007241607</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,13 +847,13 @@
         <v>2.255465</v>
       </c>
       <c r="H7">
-        <v>6.766395000000001</v>
+        <v>6.766394999999999</v>
       </c>
       <c r="I7">
-        <v>0.01910312695076755</v>
+        <v>0.01814126213173672</v>
       </c>
       <c r="J7">
-        <v>0.01910312695076755</v>
+        <v>0.01814126213173672</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,25 +865,25 @@
         <v>2.255465</v>
       </c>
       <c r="N7">
-        <v>6.766395000000001</v>
+        <v>6.766394999999999</v>
       </c>
       <c r="O7">
-        <v>0.01910312695076755</v>
+        <v>0.01814126213173672</v>
       </c>
       <c r="P7">
-        <v>0.01910312695076755</v>
+        <v>0.01814126213173672</v>
       </c>
       <c r="Q7">
-        <v>5.087122366225002</v>
+        <v>5.087122366224998</v>
       </c>
       <c r="R7">
-        <v>45.78410129602501</v>
+        <v>45.78410129602499</v>
       </c>
       <c r="S7">
-        <v>0.0003649294592971413</v>
+        <v>0.0003291053917323846</v>
       </c>
       <c r="T7">
-        <v>0.0003649294592971413</v>
+        <v>0.0003291053917323846</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,13 +909,13 @@
         <v>2.255465</v>
       </c>
       <c r="H8">
-        <v>6.766395000000001</v>
+        <v>6.766394999999999</v>
       </c>
       <c r="I8">
-        <v>0.01910312695076755</v>
+        <v>0.01814126213173672</v>
       </c>
       <c r="J8">
-        <v>0.01910312695076755</v>
+        <v>0.01814126213173672</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>28.247359</v>
+        <v>28.72545833333334</v>
       </c>
       <c r="N8">
-        <v>84.74207700000001</v>
+        <v>86.17637500000001</v>
       </c>
       <c r="O8">
-        <v>0.2392468448860462</v>
+        <v>0.2310459570329316</v>
       </c>
       <c r="P8">
-        <v>0.2392468448860462</v>
+        <v>0.2310459570329316</v>
       </c>
       <c r="Q8">
-        <v>63.71092956693502</v>
+        <v>64.78926587979166</v>
       </c>
       <c r="R8">
-        <v>573.3983661024151</v>
+        <v>583.103392918125</v>
       </c>
       <c r="S8">
-        <v>0.004570362850428731</v>
+        <v>0.00419146527101239</v>
       </c>
       <c r="T8">
-        <v>0.004570362850428731</v>
+        <v>0.004191465271012391</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,13 +971,13 @@
         <v>2.255465</v>
       </c>
       <c r="H9">
-        <v>6.766395000000001</v>
+        <v>6.766394999999999</v>
       </c>
       <c r="I9">
-        <v>0.01910312695076755</v>
+        <v>0.01814126213173672</v>
       </c>
       <c r="J9">
-        <v>0.01910312695076755</v>
+        <v>0.01814126213173672</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -986,28 +986,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.5269253333333334</v>
+        <v>0.706587</v>
       </c>
       <c r="N9">
-        <v>1.580776</v>
+        <v>2.119761</v>
       </c>
       <c r="O9">
-        <v>0.004462903009464643</v>
+        <v>0.005683253779543222</v>
       </c>
       <c r="P9">
-        <v>0.004462903009464643</v>
+        <v>0.005683253779543223</v>
       </c>
       <c r="Q9">
-        <v>1.188461646946667</v>
+        <v>1.593682247955</v>
       </c>
       <c r="R9">
-        <v>10.69615482252</v>
+        <v>14.343140231595</v>
       </c>
       <c r="S9">
-        <v>8.525540275876561E-05</v>
+        <v>0.000103101396575877</v>
       </c>
       <c r="T9">
-        <v>8.525540275876561E-05</v>
+        <v>0.000103101396575877</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>28.247359</v>
+        <v>28.72545833333334</v>
       </c>
       <c r="H10">
-        <v>84.74207700000001</v>
+        <v>86.17637500000001</v>
       </c>
       <c r="I10">
-        <v>0.2392468448860462</v>
+        <v>0.2310459570329316</v>
       </c>
       <c r="J10">
-        <v>0.2392468448860462</v>
+        <v>0.2310459570329316</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>87.038094</v>
+        <v>92.64038833333332</v>
       </c>
       <c r="N10">
-        <v>261.114282</v>
+        <v>277.921165</v>
       </c>
       <c r="O10">
-        <v>0.7371871251537216</v>
+        <v>0.7451295270557885</v>
       </c>
       <c r="P10">
-        <v>0.7371871251537216</v>
+        <v>0.7451295270557885</v>
       </c>
       <c r="Q10">
-        <v>2458.596287893746</v>
+        <v>2661.137615052986</v>
       </c>
       <c r="R10">
-        <v>22127.36659104372</v>
+        <v>23950.23853547687</v>
       </c>
       <c r="S10">
-        <v>0.1763696937836428</v>
+        <v>0.1721591646921003</v>
       </c>
       <c r="T10">
-        <v>0.1763696937836428</v>
+        <v>0.1721591646921004</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,16 +1092,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>28.247359</v>
+        <v>28.72545833333334</v>
       </c>
       <c r="H11">
-        <v>84.74207700000001</v>
+        <v>86.17637500000001</v>
       </c>
       <c r="I11">
-        <v>0.2392468448860462</v>
+        <v>0.2310459570329316</v>
       </c>
       <c r="J11">
-        <v>0.2392468448860462</v>
+        <v>0.2310459570329316</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,25 +1113,25 @@
         <v>2.255465</v>
       </c>
       <c r="N11">
-        <v>6.766395000000001</v>
+        <v>6.766394999999999</v>
       </c>
       <c r="O11">
-        <v>0.01910312695076755</v>
+        <v>0.01814126213173672</v>
       </c>
       <c r="P11">
-        <v>0.01910312695076755</v>
+        <v>0.01814126213173672</v>
       </c>
       <c r="Q11">
-        <v>63.71092956693502</v>
+        <v>64.78926587979166</v>
       </c>
       <c r="R11">
-        <v>573.3983661024151</v>
+        <v>583.103392918125</v>
       </c>
       <c r="S11">
-        <v>0.004570362850428731</v>
+        <v>0.00419146527101239</v>
       </c>
       <c r="T11">
-        <v>0.004570362850428731</v>
+        <v>0.004191465271012391</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,16 +1154,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>28.247359</v>
+        <v>28.72545833333334</v>
       </c>
       <c r="H12">
-        <v>84.74207700000001</v>
+        <v>86.17637500000001</v>
       </c>
       <c r="I12">
-        <v>0.2392468448860462</v>
+        <v>0.2310459570329316</v>
       </c>
       <c r="J12">
-        <v>0.2392468448860462</v>
+        <v>0.2310459570329316</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1172,28 +1172,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>28.247359</v>
+        <v>28.72545833333334</v>
       </c>
       <c r="N12">
-        <v>84.74207700000001</v>
+        <v>86.17637500000001</v>
       </c>
       <c r="O12">
-        <v>0.2392468448860462</v>
+        <v>0.2310459570329316</v>
       </c>
       <c r="P12">
-        <v>0.2392468448860462</v>
+        <v>0.2310459570329316</v>
       </c>
       <c r="Q12">
-        <v>797.9132904748811</v>
+        <v>825.1519564600695</v>
       </c>
       <c r="R12">
-        <v>7181.21961427393</v>
+        <v>7426.367608140627</v>
       </c>
       <c r="S12">
-        <v>0.05723905278792783</v>
+        <v>0.05338223426126326</v>
       </c>
       <c r="T12">
-        <v>0.05723905278792785</v>
+        <v>0.05338223426126328</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,16 +1216,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>28.247359</v>
+        <v>28.72545833333334</v>
       </c>
       <c r="H13">
-        <v>84.74207700000001</v>
+        <v>86.17637500000001</v>
       </c>
       <c r="I13">
-        <v>0.2392468448860462</v>
+        <v>0.2310459570329316</v>
       </c>
       <c r="J13">
-        <v>0.2392468448860462</v>
+        <v>0.2310459570329316</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1234,28 +1234,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.5269253333333334</v>
+        <v>0.706587</v>
       </c>
       <c r="N13">
-        <v>1.580776</v>
+        <v>2.119761</v>
       </c>
       <c r="O13">
-        <v>0.004462903009464643</v>
+        <v>0.005683253779543222</v>
       </c>
       <c r="P13">
-        <v>0.004462903009464643</v>
+        <v>0.005683253779543223</v>
       </c>
       <c r="Q13">
-        <v>14.88424905686134</v>
+        <v>20.297035427375</v>
       </c>
       <c r="R13">
-        <v>133.958241511752</v>
+        <v>182.673318846375</v>
       </c>
       <c r="S13">
-        <v>0.001067735464046856</v>
+        <v>0.001313092808555589</v>
       </c>
       <c r="T13">
-        <v>0.001067735464046856</v>
+        <v>0.00131309280855559</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,16 +1278,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.5269253333333334</v>
+        <v>0.706587</v>
       </c>
       <c r="H14">
-        <v>1.580776</v>
+        <v>2.119761</v>
       </c>
       <c r="I14">
-        <v>0.004462903009464643</v>
+        <v>0.005683253779543222</v>
       </c>
       <c r="J14">
-        <v>0.004462903009464643</v>
+        <v>0.005683253779543223</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1296,28 +1296,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>87.038094</v>
+        <v>92.64038833333332</v>
       </c>
       <c r="N14">
-        <v>261.114282</v>
+        <v>277.921165</v>
       </c>
       <c r="O14">
-        <v>0.7371871251537216</v>
+        <v>0.7451295270557885</v>
       </c>
       <c r="P14">
-        <v>0.7371871251537216</v>
+        <v>0.7451295270557885</v>
       </c>
       <c r="Q14">
-        <v>45.862576693648</v>
+        <v>65.45849407128499</v>
       </c>
       <c r="R14">
-        <v>412.763190242832</v>
+        <v>589.1264466415649</v>
       </c>
       <c r="S14">
-        <v>0.003289994639387133</v>
+        <v>0.004234760200889063</v>
       </c>
       <c r="T14">
-        <v>0.003289994639387133</v>
+        <v>0.004234760200889064</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,16 +1340,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.5269253333333334</v>
+        <v>0.706587</v>
       </c>
       <c r="H15">
-        <v>1.580776</v>
+        <v>2.119761</v>
       </c>
       <c r="I15">
-        <v>0.004462903009464643</v>
+        <v>0.005683253779543222</v>
       </c>
       <c r="J15">
-        <v>0.004462903009464643</v>
+        <v>0.005683253779543223</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1361,25 +1361,25 @@
         <v>2.255465</v>
       </c>
       <c r="N15">
-        <v>6.766395000000001</v>
+        <v>6.766394999999999</v>
       </c>
       <c r="O15">
-        <v>0.01910312695076755</v>
+        <v>0.01814126213173672</v>
       </c>
       <c r="P15">
-        <v>0.01910312695076755</v>
+        <v>0.01814126213173672</v>
       </c>
       <c r="Q15">
-        <v>1.188461646946667</v>
+        <v>1.593682247955</v>
       </c>
       <c r="R15">
-        <v>10.69615482252</v>
+        <v>14.343140231595</v>
       </c>
       <c r="S15">
-        <v>8.525540275876561E-05</v>
+        <v>0.000103101396575877</v>
       </c>
       <c r="T15">
-        <v>8.525540275876561E-05</v>
+        <v>0.000103101396575877</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,16 +1402,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.5269253333333334</v>
+        <v>0.706587</v>
       </c>
       <c r="H16">
-        <v>1.580776</v>
+        <v>2.119761</v>
       </c>
       <c r="I16">
-        <v>0.004462903009464643</v>
+        <v>0.005683253779543222</v>
       </c>
       <c r="J16">
-        <v>0.004462903009464643</v>
+        <v>0.005683253779543223</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1420,28 +1420,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>28.247359</v>
+        <v>28.72545833333334</v>
       </c>
       <c r="N16">
-        <v>84.74207700000001</v>
+        <v>86.17637500000001</v>
       </c>
       <c r="O16">
-        <v>0.2392468448860462</v>
+        <v>0.2310459570329316</v>
       </c>
       <c r="P16">
-        <v>0.2392468448860462</v>
+        <v>0.2310459570329316</v>
       </c>
       <c r="Q16">
-        <v>14.88424905686134</v>
+        <v>20.297035427375</v>
       </c>
       <c r="R16">
-        <v>133.958241511752</v>
+        <v>182.673318846375</v>
       </c>
       <c r="S16">
-        <v>0.001067735464046856</v>
+        <v>0.001313092808555589</v>
       </c>
       <c r="T16">
-        <v>0.001067735464046856</v>
+        <v>0.00131309280855559</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,16 +1464,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.5269253333333334</v>
+        <v>0.706587</v>
       </c>
       <c r="H17">
-        <v>1.580776</v>
+        <v>2.119761</v>
       </c>
       <c r="I17">
-        <v>0.004462903009464643</v>
+        <v>0.005683253779543222</v>
       </c>
       <c r="J17">
-        <v>0.004462903009464643</v>
+        <v>0.005683253779543223</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1482,28 +1482,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.5269253333333334</v>
+        <v>0.706587</v>
       </c>
       <c r="N17">
-        <v>1.580776</v>
+        <v>2.119761</v>
       </c>
       <c r="O17">
-        <v>0.004462903009464643</v>
+        <v>0.005683253779543222</v>
       </c>
       <c r="P17">
-        <v>0.004462903009464643</v>
+        <v>0.005683253779543223</v>
       </c>
       <c r="Q17">
-        <v>0.2776503069084444</v>
+        <v>0.4992651885689999</v>
       </c>
       <c r="R17">
-        <v>2.498852762176</v>
+        <v>4.493386697121</v>
       </c>
       <c r="S17">
-        <v>1.991750327188857E-05</v>
+        <v>3.229937352269231E-05</v>
       </c>
       <c r="T17">
-        <v>1.991750327188857E-05</v>
+        <v>3.229937352269233E-05</v>
       </c>
     </row>
   </sheetData>
